--- a/LiangLiang918/evidence.xlsx
+++ b/LiangLiang918/evidence.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="18400"/>
+    <workbookView windowWidth="25600" windowHeight="12800" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Info" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="40">
   <si>
     <t>TeamName</t>
   </si>
@@ -91,34 +91,58 @@
     <t>ClassID</t>
   </si>
   <si>
-    <t>tx hash on irisnet</t>
-  </si>
-  <si>
-    <t>class id you issued</t>
+    <t>A8586345DF80A0E4C18568C8BD7B9EB7AFC0DA3709AF7B2E502FAFEADB8090B2</t>
+  </si>
+  <si>
+    <t>liangliang9180306001</t>
   </si>
   <si>
     <t>NFTID</t>
   </si>
   <si>
-    <t>nft id you minted</t>
+    <t>A21D4C7F1F728900DC1C5F54A1D5FA0E1CC048676A4E02A6A58900DE653F387F</t>
+  </si>
+  <si>
+    <t>cookiean001</t>
+  </si>
+  <si>
+    <t>82BD0D55885035AAD8D9B1FDAB0CC17A3E87BF6098B15554822A8875E9103F67</t>
+  </si>
+  <si>
+    <t>cookiean002</t>
   </si>
   <si>
     <t>ChainID</t>
   </si>
   <si>
-    <t>ibc class on dest chain</t>
+    <t>C0AD0976B3BAB4F785C3C3A432A6FCE515AF2728B1861C029CAD07C1CC322FE6</t>
+  </si>
+  <si>
+    <t>juno1w0ngfp7g70ythp5as56jagpd735zk58kh8fed444npc5e498uvzsd9mnsc</t>
+  </si>
+  <si>
+    <t>uni-6</t>
+  </si>
+  <si>
+    <t>A0D2852BABDD1768C4D37A69B06210ED934BB7C1B0DAE3B9A6F84222F1441562</t>
+  </si>
+  <si>
+    <t>ibc/88A0B0817B22F3A673B3ADA1F8A37E792373EAE0CC3D9B3C5626A96A97678040</t>
+  </si>
+  <si>
+    <t>uptick_7000-2</t>
+  </si>
+  <si>
+    <t>6AE7213C3FD52497292035F37DCB3394EF0D25BC7BBE8EF1EB0ADC88DDDFEF71</t>
+  </si>
+  <si>
+    <t>87450C2473810AD7B0B153708952272048B2701BF4277E32F116E7C13DE42166</t>
+  </si>
+  <si>
+    <t>ibc class on chain</t>
   </si>
   <si>
     <t>nft id</t>
-  </si>
-  <si>
-    <t>dest chain id</t>
-  </si>
-  <si>
-    <t>tx hash on dest chain</t>
-  </si>
-  <si>
-    <t>ibc class on chain</t>
   </si>
   <si>
     <t>tx hash on that chain</t>
@@ -141,12 +165,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="22">
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -169,7 +193,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -183,13 +207,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="13"/>
       <color theme="3"/>
@@ -199,16 +216,48 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -228,24 +277,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -259,21 +300,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
@@ -282,11 +308,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="3"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -298,15 +323,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -333,13 +350,109 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -351,163 +464,67 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -556,6 +573,21 @@
       <top/>
       <bottom style="medium">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -624,163 +656,148 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="27" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="32" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="14" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="18" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="9" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
@@ -1152,7 +1169,7 @@
   </sheetPr>
   <dimension ref="A1:H2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
@@ -1250,10 +1267,10 @@
     </row>
     <row r="2" ht="17.25" customHeight="1" spans="1:2">
       <c r="A2" s="3" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>23</v>
+        <v>34</v>
       </c>
     </row>
   </sheetData>
@@ -1289,10 +1306,10 @@
     </row>
     <row r="2" ht="17.25" customHeight="1" spans="1:2">
       <c r="A2" s="3" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>23</v>
+        <v>34</v>
       </c>
     </row>
   </sheetData>
@@ -1328,10 +1345,10 @@
     </row>
     <row r="2" ht="17.25" customHeight="1" spans="1:2">
       <c r="A2" s="3" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>23</v>
+        <v>34</v>
       </c>
     </row>
   </sheetData>
@@ -1367,10 +1384,10 @@
     </row>
     <row r="2" ht="17.25" customHeight="1" spans="1:2">
       <c r="A2" s="3" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>23</v>
+        <v>34</v>
       </c>
     </row>
   </sheetData>
@@ -1401,25 +1418,25 @@
         <v>15</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
     </row>
     <row r="2" ht="17.25" customHeight="1" spans="1:2">
       <c r="A2" s="3" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>28</v>
+        <v>36</v>
       </c>
     </row>
     <row r="3" ht="17.25" customHeight="1" spans="1:1">
       <c r="A3" s="3" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
     </row>
     <row r="4" ht="17.25" customHeight="1" spans="1:1">
       <c r="A4" s="3" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
     </row>
   </sheetData>
@@ -1450,25 +1467,25 @@
         <v>15</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
     </row>
     <row r="2" ht="17.25" customHeight="1" spans="1:2">
       <c r="A2" s="3" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>28</v>
+        <v>36</v>
       </c>
     </row>
     <row r="3" ht="17.25" customHeight="1" spans="1:1">
       <c r="A3" s="3" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
     </row>
     <row r="4" ht="17.25" customHeight="1" spans="1:1">
       <c r="A4" s="3" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
     </row>
   </sheetData>
@@ -1499,25 +1516,25 @@
         <v>15</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
     </row>
     <row r="2" ht="17.25" customHeight="1" spans="1:2">
       <c r="A2" s="3" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>28</v>
+        <v>36</v>
       </c>
     </row>
     <row r="3" ht="17.25" customHeight="1" spans="1:1">
       <c r="A3" s="3" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
     </row>
     <row r="4" ht="17.25" customHeight="1" spans="1:1">
       <c r="A4" s="3" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
     </row>
   </sheetData>
@@ -1548,25 +1565,25 @@
         <v>15</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
     </row>
     <row r="2" ht="17.25" customHeight="1" spans="1:2">
       <c r="A2" s="3" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>28</v>
+        <v>36</v>
       </c>
     </row>
     <row r="3" ht="17.25" customHeight="1" spans="1:1">
       <c r="A3" s="3" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
     </row>
     <row r="4" ht="17.25" customHeight="1" spans="1:1">
       <c r="A4" s="3" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
     </row>
   </sheetData>
@@ -1597,25 +1614,25 @@
         <v>15</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
     </row>
     <row r="2" ht="17.25" customHeight="1" spans="1:2">
       <c r="A2" s="3" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>28</v>
+        <v>36</v>
       </c>
     </row>
     <row r="3" ht="17.25" customHeight="1" spans="1:1">
       <c r="A3" s="3" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
     </row>
     <row r="4" ht="17.25" customHeight="1" spans="1:1">
       <c r="A4" s="3" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
     </row>
   </sheetData>
@@ -1646,25 +1663,25 @@
         <v>15</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
     </row>
     <row r="2" ht="17.25" customHeight="1" spans="1:2">
       <c r="A2" s="3" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>28</v>
+        <v>36</v>
       </c>
     </row>
     <row r="3" ht="17.25" customHeight="1" spans="1:1">
       <c r="A3" s="3" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
     </row>
     <row r="4" ht="17.25" customHeight="1" spans="1:1">
       <c r="A4" s="3" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
     </row>
   </sheetData>
@@ -1681,7 +1698,7 @@
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8" outlineLevelRow="1" outlineLevelCol="1"/>
@@ -1733,25 +1750,25 @@
         <v>15</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
     </row>
     <row r="2" ht="17.25" customHeight="1" spans="1:2">
       <c r="A2" s="3" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>28</v>
+        <v>36</v>
       </c>
     </row>
     <row r="3" ht="17.25" customHeight="1" spans="1:1">
       <c r="A3" s="3" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
     </row>
     <row r="4" ht="17.25" customHeight="1" spans="1:1">
       <c r="A4" s="3" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
     </row>
   </sheetData>
@@ -1782,25 +1799,25 @@
         <v>15</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
     </row>
     <row r="2" ht="17.25" customHeight="1" spans="1:2">
       <c r="A2" s="3" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>28</v>
+        <v>36</v>
       </c>
     </row>
     <row r="3" ht="17.25" customHeight="1" spans="1:1">
       <c r="A3" s="3" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
     </row>
     <row r="4" ht="17.25" customHeight="1" spans="1:1">
       <c r="A4" s="3" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
     </row>
   </sheetData>
@@ -1832,12 +1849,12 @@
     </row>
     <row r="2" ht="16.4" customHeight="1" spans="1:1">
       <c r="A2" s="3" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
     </row>
     <row r="3" ht="17.25" customHeight="1" spans="1:1">
       <c r="A3" s="3" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
     </row>
   </sheetData>
@@ -1869,12 +1886,12 @@
     </row>
     <row r="2" ht="17.25" customHeight="1" spans="1:1">
       <c r="A2" s="3" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
     </row>
     <row r="3" ht="17.25" customHeight="1" spans="1:1">
       <c r="A3" s="3" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
     </row>
   </sheetData>
@@ -1906,12 +1923,12 @@
     </row>
     <row r="2" ht="17.25" customHeight="1" spans="1:1">
       <c r="A2" s="3" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
     </row>
     <row r="3" ht="17.25" customHeight="1" spans="1:1">
       <c r="A3" s="3" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
     </row>
   </sheetData>
@@ -1943,12 +1960,12 @@
     </row>
     <row r="2" ht="17.25" customHeight="1" spans="1:1">
       <c r="A2" s="3" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
     </row>
     <row r="3" ht="17.25" customHeight="1" spans="1:1">
       <c r="A3" s="3" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
     </row>
   </sheetData>
@@ -1962,13 +1979,13 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8" outlineLevelRow="1" outlineLevelCol="2"/>
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8" outlineLevelRow="2" outlineLevelCol="2"/>
   <cols>
     <col min="1" max="2" width="17.8653846153846" style="1" customWidth="1"/>
     <col min="3" max="3" width="16.0096153846154" style="1" customWidth="1"/>
@@ -1987,13 +2004,24 @@
     </row>
     <row r="2" ht="17.25" customHeight="1" spans="1:3">
       <c r="A2" s="3" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>18</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>20</v>
+        <v>21</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>23</v>
       </c>
     </row>
   </sheetData>
@@ -2010,7 +2038,60 @@
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8" outlineLevelRow="1" outlineLevelCol="3"/>
+  <cols>
+    <col min="1" max="1" width="70.6730769230769" style="1" customWidth="1"/>
+    <col min="2" max="2" width="33.6538461538462" style="1" customWidth="1"/>
+    <col min="3" max="3" width="16.0096153846154" style="1" customWidth="1"/>
+    <col min="4" max="4" width="12.4326923076923" style="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="17.25" customHeight="1" spans="1:4">
+      <c r="A1" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2" ht="17.25" customHeight="1" spans="1:4">
+      <c r="A2" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr>
+    <outlinePr summaryBelow="0"/>
+  </sheetPr>
+  <dimension ref="A1:D2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8" outlineLevelRow="1" outlineLevelCol="3"/>
@@ -2031,38 +2112,38 @@
         <v>19</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
     </row>
     <row r="2" ht="17.25" customHeight="1" spans="1:4">
       <c r="A2" s="3" t="s">
-        <v>17</v>
+        <v>28</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>23</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>24</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+        <v>30</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
   <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8" outlineLevelRow="1" outlineLevelCol="3"/>
@@ -2083,73 +2164,21 @@
         <v>19</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
     </row>
     <row r="2" ht="17.25" customHeight="1" spans="1:4">
       <c r="A2" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>24</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr>
-    <outlinePr summaryBelow="0"/>
-  </sheetPr>
-  <dimension ref="A1:D2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8" outlineLevelRow="1" outlineLevelCol="3"/>
-  <cols>
-    <col min="1" max="2" width="17.8653846153846" style="1" customWidth="1"/>
-    <col min="3" max="3" width="16.0096153846154" style="1" customWidth="1"/>
-    <col min="4" max="4" width="12.4326923076923" style="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" ht="17.25" customHeight="1" spans="1:4">
-      <c r="A1" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="2" ht="17.25" customHeight="1" spans="1:4">
-      <c r="A2" s="3" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>26</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
     </row>
   </sheetData>
@@ -2166,7 +2195,7 @@
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8" outlineLevelRow="1" outlineLevelCol="3"/>
@@ -2188,21 +2217,21 @@
         <v>19</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
     </row>
     <row r="2" ht="17.25" customHeight="1" spans="1:4">
       <c r="A2" s="3" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>23</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
     </row>
   </sheetData>
@@ -2238,10 +2267,10 @@
     </row>
     <row r="2" ht="17.25" customHeight="1" spans="1:2">
       <c r="A2" s="3" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>23</v>
+        <v>34</v>
       </c>
     </row>
   </sheetData>
@@ -2257,7 +2286,7 @@
   </sheetPr>
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A3" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
@@ -2277,10 +2306,10 @@
     </row>
     <row r="2" ht="17.25" customHeight="1" spans="1:2">
       <c r="A2" s="3" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>23</v>
+        <v>34</v>
       </c>
     </row>
   </sheetData>
